--- a/graduacion/graduacion.xlsx
+++ b/graduacion/graduacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/ ANTIGRAVITY/graduacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E89F07-3397-6B4B-BB15-36876DF33B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444CC0B7-FDF3-EA43-982B-8515685D88F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0C5D4335-B98D-8C4A-B531-C3D387BAD24B}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{0C5D4335-B98D-8C4A-B531-C3D387BAD24B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>Graduacion_Normal_Meta</t>
   </si>
   <si>
-    <t xml:space="preserve">LAURA DOLORES MONTAÐO </t>
+    <t>LAURA DOLORES MONTAÐO MONTAÐO</t>
   </si>
 </sst>
 </file>
@@ -846,13 +846,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}" name="Tabla1354" displayName="Tabla1354" ref="A1:J12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A1:J12" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="LAURA DOLORES MONTAÐO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J12" xr:uid="{2570D2C2-F6BF-4347-BB55-EBFD27355781}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition descending="1" ref="G1:G39"/>
   </sortState>
@@ -1196,7 +1190,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1243,7 +1237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" hidden="1">
+    <row r="2" spans="1:10" ht="18">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1245,7 @@
         <v>111960</v>
       </c>
       <c r="C2" s="6">
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D2" s="7">
         <v>45707</v>
@@ -1266,7 +1260,7 @@
         <v>9.5</v>
       </c>
       <c r="H2" s="9">
-        <v>94576.19</v>
+        <v>94809.82</v>
       </c>
       <c r="I2" s="10" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1286,7 +1280,7 @@
       </c>
       <c r="C3" s="6">
         <f>C2</f>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D3" s="7">
         <v>45776</v>
@@ -1312,7 +1306,7 @@
         <v>POR DEBAJO</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1">
+    <row r="4" spans="1:10">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1315,7 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" ref="C4:C12" si="1">C3</f>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D4" s="7">
         <v>45806</v>
@@ -1336,7 +1330,7 @@
         <v>10.5</v>
       </c>
       <c r="H4" s="9">
-        <v>90862.11</v>
+        <v>93540.73</v>
       </c>
       <c r="I4" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1347,7 +1341,7 @@
         <v>POR DEBAJO</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1350,7 @@
       </c>
       <c r="C5" s="6">
         <f t="shared" si="1"/>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D5" s="7">
         <v>45863</v>
@@ -1371,7 +1365,7 @@
         <v>12.5</v>
       </c>
       <c r="H5" s="9">
-        <v>56101.34</v>
+        <v>56814.33</v>
       </c>
       <c r="I5" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1382,7 +1376,7 @@
         <v>POR DEBAJO</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1391,7 +1385,7 @@
       </c>
       <c r="C6" s="6">
         <f t="shared" si="1"/>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D6" s="7">
         <v>45852</v>
@@ -1406,7 +1400,7 @@
         <v>10.5</v>
       </c>
       <c r="H6" s="9">
-        <v>76136.210000000006</v>
+        <v>76489.83</v>
       </c>
       <c r="I6" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1417,7 +1411,7 @@
         <v>POR DEBAJO</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1426,7 +1420,7 @@
       </c>
       <c r="C7" s="6">
         <f t="shared" si="1"/>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D7" s="7">
         <v>45930</v>
@@ -1452,7 +1446,7 @@
         <v>POR DEBAJO</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1455,7 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" si="1"/>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D8" s="7">
         <v>45904</v>
@@ -1487,7 +1481,7 @@
         <v>POR DEBAJO</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1496,7 +1490,7 @@
       </c>
       <c r="C9" s="6">
         <f t="shared" si="1"/>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D9" s="7">
         <v>45944</v>
@@ -1511,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="9">
-        <v>52981.24</v>
+        <v>55997.8</v>
       </c>
       <c r="I9" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1522,7 +1516,7 @@
         <v>EN META</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1525,7 @@
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D10" s="7">
         <v>45950</v>
@@ -1546,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="9">
-        <v>21703.31</v>
+        <v>22297.5</v>
       </c>
       <c r="I10" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1557,7 +1551,7 @@
         <v>POR DEBAJO</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1566,7 +1560,7 @@
       </c>
       <c r="C11" s="6">
         <f t="shared" si="1"/>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D11" s="7">
         <v>45986</v>
@@ -1581,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="9">
-        <v>47221.08</v>
+        <v>47808.2</v>
       </c>
       <c r="I11" s="11" t="str">
         <f>IF(Tabla1354[[#This Row],[Polizas_Totales]]&gt;=(Tabla1354[[#This Row],[Mes_Asesor]]*3),"EN META","POR DEBAJO")</f>
@@ -1592,7 +1586,7 @@
         <v>EN META</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1595,7 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" si="1"/>
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D12" s="7">
         <v>46010</v>

--- a/graduacion/graduacion.xlsx
+++ b/graduacion/graduacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/ ANTIGRAVITY/graduacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444CC0B7-FDF3-EA43-982B-8515685D88F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405F67CF-45E1-3346-83CF-7F90BD9FF5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{0C5D4335-B98D-8C4A-B531-C3D387BAD24B}"/>
   </bookViews>

--- a/graduacion/graduacion.xlsx
+++ b/graduacion/graduacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/ ANTIGRAVITY/graduacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405F67CF-45E1-3346-83CF-7F90BD9FF5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C2B6A4-4AA4-7943-A4B4-6BA090A672B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{0C5D4335-B98D-8C4A-B531-C3D387BAD24B}"/>
   </bookViews>
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3CF557-8EC8-CD40-9C10-648C71E32AFF}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
